--- a/Solidworks/Drawings/OpSheet(Cole).xlsx
+++ b/Solidworks/Drawings/OpSheet(Cole).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\Solidworks\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB1CDDD-4A73-4B39-878E-679297F978CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41912594-A002-487D-A1CC-DA150FE4189B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4170" xr2:uid="{19255287-C27E-4F71-82E3-7A54D86417C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="151">
   <si>
     <t>Manufacturing Process Sheet</t>
   </si>
@@ -81,9 +81,6 @@
     <t>On same horizontal line, (but on other side of .5" hole) tap M3x.5 thread 2.5" away from first tapped hole</t>
   </si>
   <si>
-    <t>Estimated Time</t>
-  </si>
-  <si>
     <t>5 minutes</t>
   </si>
   <si>
@@ -421,6 +418,66 @@
   </si>
   <si>
     <t>Test bot!</t>
+  </si>
+  <si>
+    <t>Cut a piece of 3/16" aluminum to a 15"x13" rectangle</t>
+  </si>
+  <si>
+    <t>Cut 2.75" recess in the sheet as shown in the AP1 drawing</t>
+  </si>
+  <si>
+    <t>Drill the 11 M3 clearance holes along the edge of the piece as shown in the AP1 drawing</t>
+  </si>
+  <si>
+    <t>Drill 4 more M3 clearance holes in the rectangular pattern shown in the AP1 drawing</t>
+  </si>
+  <si>
+    <t>Cut a piece of 1/8" thick aluminum sheet into a 3.375 " by 4.375" rectangle</t>
+  </si>
+  <si>
+    <t>Drill the 4 plate mounting holes as shown in drawing EP1</t>
+  </si>
+  <si>
+    <t>Drill the 8 electrinics mounting holes as shown in drawing EP1</t>
+  </si>
+  <si>
+    <t>Insert 4 M3 press-in nuts into the 4 corner holes of part EP1, all on the same side.</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>Insert 8 M3 press-in nuts into the 8 remaining holes of part EP1, all on the same side as each other, opposite the previous press-in nuts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure the Raspberry Pi Zero to part EP1 using the small electronics mounting hole pattern with 4 10mm M3 bolts. </t>
+  </si>
+  <si>
+    <t>Screwdriver</t>
+  </si>
+  <si>
+    <t>Put one 40mm M3 screw through each corner of one of the motor control boards so that the components on the board are facing up and the bolts extend down.</t>
+  </si>
+  <si>
+    <t>Flipping the motor control board over so tha the bolts point up, add one 10mm aluminum spacer to each bolt.</t>
+  </si>
+  <si>
+    <t>Slide another motor control board onto the bolts facing the same direction as the previous one.</t>
+  </si>
+  <si>
+    <t>Repeat step 5.</t>
+  </si>
+  <si>
+    <t>Repeat step 6.</t>
+  </si>
+  <si>
+    <t>Use the large electronics mounting hole pattern to secure the stack to part EP1.</t>
+  </si>
+  <si>
+    <t>AP2</t>
+  </si>
+  <si>
+    <t>Est. Time</t>
   </si>
 </sst>
 </file>
@@ -456,8 +513,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,16 +832,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC602E30-84C4-4573-9E51-6B1E1DE36C58}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="115" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="5" width="15.28515625" customWidth="1"/>
   </cols>
@@ -790,1163 +850,1345 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
       <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>98</v>
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>95</v>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
+      <c r="A45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>56</v>
+      <c r="D52" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
+      <c r="A53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>3</v>
       </c>
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>62</v>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
+      <c r="A60" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>67</v>
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2</v>
+      <c r="A63" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>6</v>
+      <c r="A67" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" t="s">
-        <v>20</v>
+      <c r="A72" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>1</v>
       </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>89</v>
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>4</v>
-      </c>
-      <c r="B89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" t="s">
-        <v>100</v>
+      <c r="A89" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>87</v>
-      </c>
-      <c r="D91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>10</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>11</v>
-      </c>
-      <c r="B96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>12</v>
-      </c>
-      <c r="B97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>14</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>15</v>
-      </c>
-      <c r="B100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>16</v>
       </c>
-      <c r="B101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>17</v>
-      </c>
-      <c r="B102" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>18</v>
-      </c>
-      <c r="B103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>19</v>
-      </c>
-      <c r="B104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>20</v>
-      </c>
-      <c r="B105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>21</v>
-      </c>
-      <c r="B106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>22</v>
-      </c>
-      <c r="B107" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>23</v>
-      </c>
-      <c r="B108" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>24</v>
-      </c>
-      <c r="B109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>25</v>
-      </c>
-      <c r="B110" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>26</v>
-      </c>
-      <c r="B111" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>27</v>
-      </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>22</v>
+      </c>
+      <c r="B118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>23</v>
+      </c>
+      <c r="B119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>26</v>
+      </c>
+      <c r="B122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>28</v>
+      </c>
+      <c r="B124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>29</v>
+      </c>
+      <c r="B125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>30</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Solidworks/Drawings/OpSheet(Cole).xlsx
+++ b/Solidworks/Drawings/OpSheet(Cole).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cole\Documents\Fall 2018\Capstone\Solidworks\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41912594-A002-487D-A1CC-DA150FE4189B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F3EB72-73D1-4469-9606-70104A8F28B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4170" xr2:uid="{19255287-C27E-4F71-82E3-7A54D86417C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="169">
   <si>
     <t>Manufacturing Process Sheet</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Bandsaw</t>
   </si>
   <si>
-    <t>Cut 7.32" x .75" rectangle (staring 2.68" from the same edge the first hole was drilled on</t>
-  </si>
-  <si>
     <t>Mill (.25" bit)</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Cut aluminum rectangular tube to a length of 2"</t>
   </si>
   <si>
-    <t>Tap M3x.5" thread on center line .5" from edge</t>
-  </si>
-  <si>
     <t>Tap M3x.5" thread 4.25" from same referenced edge</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Cut aluminum rectangular tube to a length of 3.75"</t>
   </si>
   <si>
-    <t>On same side hole was tapped (but on 2" face)cut slot for FR (Roller/bearing)</t>
-  </si>
-  <si>
     <t>Tap M3x.5" thread .5" from horizontal edge and .5" from vertical edge on 1" face</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Mill (7 mm drill bit)</t>
   </si>
   <si>
-    <t>RH1</t>
-  </si>
-  <si>
     <t>Cut 3/8" aluminum to 2.7" x 2.7" triangle with .75" radii at edges</t>
   </si>
   <si>
@@ -192,15 +180,6 @@
     <t>Drill 4 .5" clearance holes for roller bars</t>
   </si>
   <si>
-    <t>AF1</t>
-  </si>
-  <si>
-    <t>Cut .75" stock aluminum rod to 3.67" length</t>
-  </si>
-  <si>
-    <t>Turn rod down to .5" with the exception of .6" diamter (.2" long) end</t>
-  </si>
-  <si>
     <t>Lathe</t>
   </si>
   <si>
@@ -210,12 +189,6 @@
     <t xml:space="preserve"> 5 minutes</t>
   </si>
   <si>
-    <t>AR1*</t>
-  </si>
-  <si>
-    <t>Cut aluminum rod to 4" length</t>
-  </si>
-  <si>
     <t xml:space="preserve">Turn rod down to .5" </t>
   </si>
   <si>
@@ -225,12 +198,6 @@
     <t xml:space="preserve">Cut set screw slot in .25" dimater </t>
   </si>
   <si>
-    <t>EP1</t>
-  </si>
-  <si>
-    <t>P1 (2x)</t>
-  </si>
-  <si>
     <t>Bore out (from bought pulley) .25" hole to .5"</t>
   </si>
   <si>
@@ -330,84 +297,21 @@
     <t>2 hours</t>
   </si>
   <si>
-    <t>Bolt all 4 bearings on both FR2</t>
-  </si>
-  <si>
-    <t>tighten wheel hub clamp onto axle</t>
-  </si>
-  <si>
-    <t>Tighten pulley set screw in place</t>
-  </si>
-  <si>
     <t>Mount motor to gear boxes and tighten set screw of pinion gear ono motor shaft</t>
   </si>
   <si>
-    <t>Put driver gear on end of axle, tighten set screw</t>
-  </si>
-  <si>
-    <t>Screw in gear box/motor to FR2 so that gear teeth mesh</t>
-  </si>
-  <si>
-    <t>Place all 4 pulleys inside window of FR2</t>
-  </si>
-  <si>
-    <t>Insert AR1 into FR2 axle hole/beairng/pulley</t>
-  </si>
-  <si>
-    <t>Repeat steps 12-17 for other side</t>
-  </si>
-  <si>
     <t>Insert all press fit hubs into wheel bores</t>
   </si>
   <si>
-    <t>Insert AF1 into frame/pulley/bearing</t>
-  </si>
-  <si>
-    <t>Tighten wheel clamp to AF1</t>
-  </si>
-  <si>
-    <t>Tighten set screw of pulley on axle</t>
-  </si>
-  <si>
-    <t>Repeat steps 19-21 for other side</t>
-  </si>
-  <si>
     <t>Press tube caps into place</t>
   </si>
   <si>
     <t>AP1</t>
   </si>
   <si>
-    <t>Insert 1/4" wide roller bearings into roller bracket</t>
-  </si>
-  <si>
-    <t>Insert both ends of roller axle into bearing/roller bracket</t>
-  </si>
-  <si>
-    <t>Slide roller/brackets into place at front of bot and screw brackets into frame</t>
-  </si>
-  <si>
-    <t>Screw AP 2 into frame</t>
-  </si>
-  <si>
-    <t>Screw EP1 into AP2</t>
-  </si>
-  <si>
-    <t>Mount motor control and raspberry pi to EP1</t>
-  </si>
-  <si>
     <t>Mount battery (with velcro) to FR1</t>
   </si>
   <si>
-    <t>Mount roller motor to FR6</t>
-  </si>
-  <si>
-    <t>Insert roller pulleys through window of FR6</t>
-  </si>
-  <si>
-    <t>Insert belt around pulleys</t>
-  </si>
-  <si>
     <t>Wire motors to raspberry pi/motor control panel</t>
   </si>
   <si>
@@ -435,21 +339,9 @@
     <t>Cut a piece of 1/8" thick aluminum sheet into a 3.375 " by 4.375" rectangle</t>
   </si>
   <si>
-    <t>Drill the 4 plate mounting holes as shown in drawing EP1</t>
-  </si>
-  <si>
-    <t>Drill the 8 electrinics mounting holes as shown in drawing EP1</t>
-  </si>
-  <si>
-    <t>Insert 4 M3 press-in nuts into the 4 corner holes of part EP1, all on the same side.</t>
-  </si>
-  <si>
     <t>Press</t>
   </si>
   <si>
-    <t>Insert 8 M3 press-in nuts into the 8 remaining holes of part EP1, all on the same side as each other, opposite the previous press-in nuts.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secure the Raspberry Pi Zero to part EP1 using the small electronics mounting hole pattern with 4 10mm M3 bolts. </t>
   </si>
   <si>
@@ -471,13 +363,175 @@
     <t>Repeat step 6.</t>
   </si>
   <si>
-    <t>Use the large electronics mounting hole pattern to secure the stack to part EP1.</t>
-  </si>
-  <si>
     <t>AP2</t>
   </si>
   <si>
     <t>Est. Time</t>
+  </si>
+  <si>
+    <t>40 minutes</t>
+  </si>
+  <si>
+    <t>Drill the 11 M3 clearance holes along the edge of the piece as shown in the AP2 drawing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut 4.375" by 3.375" square of 1/8" aluminum </t>
+  </si>
+  <si>
+    <t>5-10 minutes</t>
+  </si>
+  <si>
+    <t>EMA1</t>
+  </si>
+  <si>
+    <t>Tap 4 M3x.5 mm threads</t>
+  </si>
+  <si>
+    <t>Drill 8 4.5mm holes</t>
+  </si>
+  <si>
+    <t>Use the large electronics mounting hole pattern to secure the stack to part AP1.</t>
+  </si>
+  <si>
+    <t>Tap M3x.5" thread on center line .5" from both edges</t>
+  </si>
+  <si>
+    <t>Cut 7.32" x .75" rectangle (starting 2.68" from the same edge the first hole was drilled on</t>
+  </si>
+  <si>
+    <t>On same side hole was tapped (but on 2" face)cut slot for RH2 (Roller/bearing bracket)</t>
+  </si>
+  <si>
+    <t>RM1</t>
+  </si>
+  <si>
+    <t>Cut Aluminum block down to 2"x 1.27" (.25" thick) wall with bottom 1.625" x 2" (.125" thick) protrusion</t>
+  </si>
+  <si>
+    <t>25 minutes</t>
+  </si>
+  <si>
+    <t>Drill 2 M3 clearance holes as called out In RM1 drawing</t>
+  </si>
+  <si>
+    <t>Use CNC mill to cut out .125" thick, .6" wide, tab with .425" radius</t>
+  </si>
+  <si>
+    <t>Use 11/16" drill bit to drill hole in center of protruding tab</t>
+  </si>
+  <si>
+    <t>CNC mill</t>
+  </si>
+  <si>
+    <t>Turn rod down to .5" with the exception of .6" diameter (.2" long) end</t>
+  </si>
+  <si>
+    <t>Cut .75" stock 1020 steel rod to 3.67" length</t>
+  </si>
+  <si>
+    <t>Cut steel rod to 4" length</t>
+  </si>
+  <si>
+    <t>AF1(2x)</t>
+  </si>
+  <si>
+    <t>AR1(2x)</t>
+  </si>
+  <si>
+    <t>P1 (4x)</t>
+  </si>
+  <si>
+    <t>Mount gear box to frame and make sure gear teeth mesh</t>
+  </si>
+  <si>
+    <t>Insert Ar1 into FR2 axle hole/beairng/pulley and tighten pulley set screw</t>
+  </si>
+  <si>
+    <t>Place 4 bored out pulleys (P1) inside FR2 (Frame side) windows with belts around both pairs</t>
+  </si>
+  <si>
+    <t>Tighten wheel hub clamp onto axle</t>
+  </si>
+  <si>
+    <t>Insert AR1 into FR2 axle hole/bearing/pulley</t>
+  </si>
+  <si>
+    <t>Place gear on axle and tighten set screw</t>
+  </si>
+  <si>
+    <t>Bolt both bearings on FR2</t>
+  </si>
+  <si>
+    <t>Press fit both wheel hubs into wheel bores</t>
+  </si>
+  <si>
+    <t>Repeat step 10 - 18 for other side</t>
+  </si>
+  <si>
+    <t>Insert AF1 into frame pulley and bearing from inside of frame so that .6" diameter head stops at frame</t>
+  </si>
+  <si>
+    <t>Clamp wheel hubs onto end of axle</t>
+  </si>
+  <si>
+    <t>Repeat steps 20-22 for other side</t>
+  </si>
+  <si>
+    <t>Press fit flanged bearings into RM1 (2x)</t>
+  </si>
+  <si>
+    <t>Screwdriver/Drill</t>
+  </si>
+  <si>
+    <t>Tighten pley set screw</t>
+  </si>
+  <si>
+    <t>RH1 (2x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place roller bars and roller axle into roller hub (RH1) </t>
+  </si>
+  <si>
+    <t>Weld Roller hub in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place second roller hub in place at other end of roller </t>
+  </si>
+  <si>
+    <t>Weld second roller in place</t>
+  </si>
+  <si>
+    <t>slide bearings with roller mount (RM1) onto both 1/4"  ends of roller axle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slide 1/4" 24 tooth pulley onto end of roller axle </t>
+  </si>
+  <si>
+    <t>Secure motor mount to FR6</t>
+  </si>
+  <si>
+    <t>Secure motor to motor mount through pulley bore</t>
+  </si>
+  <si>
+    <t>Tighten set screw from pulley to motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; 5 minutes</t>
+  </si>
+  <si>
+    <t>Place 6 mm pulley inside FR6 (long roller arm) with bet around it</t>
+  </si>
+  <si>
+    <t>Slide roller/brackets into place at front of bot, slip belt over pulley, and screw brackets into frame</t>
+  </si>
+  <si>
+    <t>Insert 4 M3 press-in nuts into the 4 corner holes of part AP1, all on the same side.</t>
+  </si>
+  <si>
+    <t>Insert 8 M3 press-in nuts into the 8 remaining holes of part AP1, all on the same side as each other, opposite the previous press-in nuts.</t>
+  </si>
+  <si>
+    <t>Screw AP 2 (with electronic panel) into frame</t>
   </si>
 </sst>
 </file>
@@ -832,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC602E30-84C4-4573-9E51-6B1E1DE36C58}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,15 +908,12 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,13 +935,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,13 +949,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,36 +963,33 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,13 +997,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,599 +1011,656 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
+      <c r="A29" t="s">
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>9</v>
-      </c>
       <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>97</v>
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
+      <c r="A44" t="s">
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>94</v>
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
+      <c r="A48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>37</v>
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>40</v>
+      <c r="D53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
+      <c r="A55" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>50</v>
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>1</v>
       </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>55</v>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -1563,136 +1668,176 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
-        <v>18</v>
+      <c r="A68" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" t="s">
-        <v>18</v>
+      <c r="A71" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>66</v>
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>3</v>
+      <c r="A75" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,18 +1845,18 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,13 +1864,13 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,13 +1878,13 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,13 +1892,13 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,13 +1920,13 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,15 +1934,15 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,34 +1964,34 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,18 +1999,18 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,13 +2032,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,13 +2046,13 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +2060,13 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +2074,13 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,13 +2088,13 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,13 +2102,13 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D103" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,13 +2116,13 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D104" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,7 +2130,10 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>140</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,7 +2141,10 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>139</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,7 +2152,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>143</v>
+      </c>
+      <c r="C107" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,7 +2166,13 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="C108" t="s">
+        <v>151</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2017,7 +2180,13 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>138</v>
+      </c>
+      <c r="C109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2025,7 +2194,13 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>144</v>
+      </c>
+      <c r="C110" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,7 +2208,13 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>145</v>
+      </c>
+      <c r="C111" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,154 +2222,314 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C114" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="C115" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="C117" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="C118" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="C119" t="s">
+        <v>151</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C120" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="C122" t="s">
+        <v>75</v>
+      </c>
+      <c r="D122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>28</v>
       </c>
       <c r="B124" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="C124" t="s">
+        <v>75</v>
+      </c>
+      <c r="D124" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="C125" t="s">
+        <v>151</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>31</v>
+      </c>
       <c r="B127" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>32</v>
+      </c>
       <c r="B128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="C128" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>33</v>
+      </c>
       <c r="B129" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="C129" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>34</v>
+      </c>
       <c r="B130" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="C130" t="s">
+        <v>151</v>
+      </c>
+      <c r="D130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>35</v>
+      </c>
       <c r="B131" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="C131" t="s">
+        <v>151</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>36</v>
+      </c>
       <c r="B132" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>37</v>
+      </c>
       <c r="B133" t="s">
-        <v>130</v>
+        <v>168</v>
+      </c>
+      <c r="C133" t="s">
+        <v>151</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>38</v>
+      </c>
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>40</v>
+      </c>
+      <c r="B136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>41</v>
+      </c>
+      <c r="B137" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>42</v>
+      </c>
+      <c r="B138" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
